--- a/resources/top_apps/top5_apks_metadata/dm_123apps_210sec_run.xlsx
+++ b/resources/top_apps/top5_apks_metadata/dm_123apps_210sec_run.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/resources/top_apps/top5_apks_metadata/dm_123apps_210sec_run.xlsx
+++ b/resources/top_apps/top5_apks_metadata/dm_123apps_210sec_run.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="131">
   <si>
     <t>seconds</t>
   </si>
@@ -408,6 +408,18 @@
   </si>
   <si>
     <t>unique_event_apis</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -460,6 +472,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F124" totalsRowShown="0">
+  <autoFilter ref="A1:F124"/>
+  <sortState ref="A2:F124">
+    <sortCondition descending="1" ref="B1:B124"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="name"/>
+    <tableColumn id="2" name="seconds"/>
+    <tableColumn id="3" name="actions"/>
+    <tableColumn id="4" name="in_that_resets"/>
+    <tableColumn id="5" name="unique_apis"/>
+    <tableColumn id="6" name="unique_event_apis"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -761,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,499 +823,499 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B4">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="E4">
-        <v>27</v>
-      </c>
       <c r="F4">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B5">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B6">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B8">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B9">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B10">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B13">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F13">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B14">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B15">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C15">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C16">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B17">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="B18">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B19">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B20">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B21">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C23">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
         <v>12</v>
-      </c>
-      <c r="F23">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="B24">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B25">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B26">
+        <v>249</v>
+      </c>
+      <c r="C26">
         <v>49</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
       <c r="D26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>12</v>
@@ -1313,159 +1343,159 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="B29">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="C29">
+        <v>72</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
         <v>14</v>
       </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>11</v>
-      </c>
       <c r="F29">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B30">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B31">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
         <v>10</v>
-      </c>
-      <c r="F31">
-        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C32">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F32">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B33">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C33">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F33">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B34">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C35">
         <v>44</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F35">
         <v>29</v>
@@ -1473,256 +1503,256 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B36">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C36">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B37">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F38">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B39">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39">
         <v>9</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C40">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B41">
         <v>242</v>
       </c>
       <c r="C41">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B42">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C42">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F42">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C43">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F43">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B44">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B45">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E45">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B46">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B47">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F47">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B48">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C48">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>8</v>
@@ -1733,19 +1763,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B49">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C49">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49">
         <v>12</v>
@@ -1753,219 +1783,219 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B50">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C50">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F50">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B51">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>8</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B52">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C52">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B54">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C54">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="B55">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C55">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="B56">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C56">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B57">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="C57">
+        <v>66</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
         <v>7</v>
       </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>8</v>
-      </c>
       <c r="F57">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="B59">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B60">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60">
         <v>11</v>
@@ -1973,119 +2003,119 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B61">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C61">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D61">
         <v>4</v>
       </c>
       <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
         <v>7</v>
-      </c>
-      <c r="F61">
-        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B62">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C62">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F62">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B63">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C63">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B64">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C64">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
         <v>7</v>
-      </c>
-      <c r="F64">
-        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B65">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C65">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F65">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="B66">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C66">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F66">
         <v>16</v>
@@ -2093,159 +2123,159 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="B67">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
         <v>7</v>
-      </c>
-      <c r="F67">
-        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B68">
+        <v>233</v>
+      </c>
+      <c r="C68">
+        <v>32</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
+      <c r="F68">
         <v>40</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>7</v>
-      </c>
-      <c r="F68">
-        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>303</v>
+        <v>233</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B70">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B71">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="C71">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B72">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C72">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F72">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="B73">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C73">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B74">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C74">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="E74">
         <v>5</v>
-      </c>
-      <c r="E74">
-        <v>6</v>
       </c>
       <c r="F74">
         <v>7</v>
@@ -2253,19 +2283,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B75">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C75">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D75">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F75">
         <v>7</v>
@@ -2273,370 +2303,370 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B76">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C76">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D76">
         <v>4</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F76">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="B77">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C77">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F77">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="B78">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C78">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E78">
         <v>6</v>
       </c>
       <c r="F78">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="B79">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C79">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
         <v>5</v>
       </c>
-      <c r="E79">
-        <v>6</v>
-      </c>
       <c r="F79">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B80">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B81">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="B82">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="C82">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F82">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B83">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="C83">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F83">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="C84">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B85">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="C85">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B86">
-        <v>231</v>
+        <v>138</v>
       </c>
       <c r="C86">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87">
+        <v>112</v>
+      </c>
+      <c r="C87">
         <v>5</v>
       </c>
-      <c r="B87">
-        <v>229</v>
-      </c>
-      <c r="C87">
-        <v>98</v>
-      </c>
       <c r="D87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B88">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B89">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B90">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B91">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="C91">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="B92">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B93">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B94">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2645,158 +2675,158 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B95">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="C95">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B96">
-        <v>232</v>
+        <v>49</v>
       </c>
       <c r="C96">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B97">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="C97">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="B98">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="C98">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="B99">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="C99">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B100">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="C100">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="B101">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="C101">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B102">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2805,118 +2835,118 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B103">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B104">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B105">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="B106">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B107">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B108">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2925,55 +2955,55 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B109">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="C109">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="B110">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="C110">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F110">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B111">
         <v>32</v>
@@ -2985,15 +3015,15 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="B112">
         <v>32</v>
@@ -3013,10 +3043,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B113">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -3033,10 +3063,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B114">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -3045,18 +3075,18 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B115">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -3065,21 +3095,21 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B116">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -3093,10 +3123,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B117">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -3105,18 +3135,18 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B118">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -3133,10 +3163,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B119">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -3145,18 +3175,18 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="B120">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -3165,10 +3195,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -3252,11 +3282,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F124">
-    <sortState ref="A2:F124">
-      <sortCondition descending="1" ref="E1:E124"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="B2:B124">
     <cfRule type="dataBar" priority="5">
       <dataBar>
@@ -3329,6 +3354,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/resources/top_apps/top5_apks_metadata/dm_123apps_210sec_run.xlsx
+++ b/resources/top_apps/top5_apks_metadata/dm_123apps_210sec_run.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>seconds</t>
   </si>
@@ -408,18 +408,6 @@
   </si>
   <si>
     <t>unique_event_apis</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -792,7 +780,7 @@
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
